--- a/CAPSTONE 2/BLOCK 0/ContosoUniversityDatabasePlan.xlsx
+++ b/CAPSTONE 2/BLOCK 0/ContosoUniversityDatabasePlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xamariners-my.sharepoint.com/personal/lohith_xamariners_com/Documents/NTUC/Database Course/Capstone2/Block 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\g\Full-Stack-Developer-Course\CAPSTONE 2\BLOCK 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{F49B1281-DB89-48A6-91A6-82DED9AC67E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49EF5C82-F712-48A1-A6CF-13312B0029EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5C21B9-6519-40C0-BDE6-24A2011F3A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44010" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{6606000B-E034-4DC5-A36E-3E3965392157}"/>
+    <workbookView xWindow="44010" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="5" xr2:uid="{6606000B-E034-4DC5-A36E-3E3965392157}"/>
   </bookViews>
   <sheets>
     <sheet name="Department" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
   <si>
     <t>Table Name:</t>
   </si>
@@ -49,9 +49,6 @@
     <t>DepartmentId</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>STEM</t>
   </si>
   <si>
@@ -61,18 +58,6 @@
     <t>Sample Data:</t>
   </si>
   <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Primary Key not null</t>
-  </si>
-  <si>
-    <t>string 300 chars</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
@@ -142,12 +127,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Credits</t>
-  </si>
-  <si>
-    <t>Foreign Key, not null</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>Foreign Key not null</t>
-  </si>
-  <si>
     <t>char</t>
   </si>
   <si>
@@ -211,9 +187,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Composite Key not null</t>
-  </si>
-  <si>
     <t>Primary Key not empty</t>
   </si>
   <si>
@@ -232,13 +205,25 @@
     <t>Foreign Key to Instructor, not empty</t>
   </si>
   <si>
-    <t>select title from course</t>
-  </si>
-  <si>
     <t>Datatype</t>
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>Foreign Key, not empty</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Composite Key not empty</t>
+  </si>
+  <si>
+    <t>Foreign Key not empty</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -374,6 +359,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -386,10 +375,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -709,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0F13B7-99D1-4C05-A363-4D2FE24DD847}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -733,17 +718,17 @@
       <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>66</v>
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -752,63 +737,63 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -816,16 +801,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -833,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>5000</v>
@@ -850,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>5000</v>
@@ -867,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>5000</v>
@@ -886,179 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E24CB9-B9D4-453D-A6CD-C01969635A78}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7914101-4A2F-4366-A3C0-734957FBC961}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1075,84 +891,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1160,13 +976,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44105</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1174,13 +990,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4">
-        <v>44105</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1188,10 +1004,176 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7914101-4A2F-4366-A3C0-734957FBC961}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
         <v>44105</v>
@@ -1210,7 +1192,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1227,54 +1209,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1322,7 +1304,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1339,84 +1321,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1424,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4">
         <v>44105</v>
@@ -1438,10 +1420,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4">
         <v>44105</v>
@@ -1452,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4">
         <v>44105</v>
@@ -1473,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A1CC4-2041-4FF8-B8B3-4DDA44FA5159}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1491,84 +1473,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1582,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1596,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1610,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1628,15 +1610,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B0E63D69A62394A9ABED60E16860D75" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b1a29c629d37ff0e8009a6f50183a406">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6dc6022e-7347-4517-beb3-2fbd44d22588" xmlns:ns4="ca317745-e454-4f87-af78-9cb45c4858c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d8d2b05178f9e988f0ce08a87d0fbc9" ns3:_="" ns4:_="">
     <xsd:import namespace="6dc6022e-7347-4517-beb3-2fbd44d22588"/>
@@ -1833,6 +1806,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A3AE04-F133-4484-AC2D-F6FA362DDBF1}">
   <ds:schemaRefs>
@@ -1843,14 +1825,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CE1FE5E-4D49-4898-AA64-8DDB40CCE670}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBA2B7CD-9DAF-42B0-9C8F-087FC5912FAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1867,4 +1841,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CE1FE5E-4D49-4898-AA64-8DDB40CCE670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>